--- a/biology/Botanique/Orostachys/Orostachys.xlsx
+++ b/biology/Botanique/Orostachys/Orostachys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orostachys est un genre botanique appartenant à la famille des Crassulaceae et comprenant quatorze espèces succulentes[2].
-Ces plantes sont originaires de régions de la Chine, du Japon, du Kazakhstan, de Corée, de Mongolie, de Russie. Huit espèces sont en Chine[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orostachys est un genre botanique appartenant à la famille des Crassulaceae et comprenant quatorze espèces succulentes.
+Ces plantes sont originaires de régions de la Chine, du Japon, du Kazakhstan, de Corée, de Mongolie, de Russie. Huit espèces sont en Chine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles variables sont oblongues en forme d'œuf et ont souvent des taches violettes. Les feuilles ont une pointe blanche cartilagineuse à piquante. Ses racines sont fibreuses et il n'y a pas de rhizome[3]. Au cours de la première année, les feuilles sont disposées en rosettes individuelles, simples et denses. La deuxième année, une tige feuillue de 5 à 60 cm de long est solitaire, provenant du centre de la rosette. Les feuilles de la tige sont alternes. Le bord est généralement lisse. Il n'y a pas de stipule.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles variables sont oblongues en forme d'œuf et ont souvent des taches violettes. Les feuilles ont une pointe blanche cartilagineuse à piquante. Ses racines sont fibreuses et il n'y a pas de rhizome. Au cours de la première année, les feuilles sont disposées en rosettes individuelles, simples et denses. La deuxième année, une tige feuillue de 5 à 60 cm de long est solitaire, provenant du centre de la rosette. Les feuilles de la tige sont alternes. Le bord est généralement lisse. Il n'y a pas de stipule.
 L'inflorescence indéterminée est relativement grande et étroitement pyramidale à cylindrique, et contient beaucoup de fleurs et de hautes feuilles ressemblant à la laitue. Les fleurs au moins très courtes sont hermaphrodites et quintuples. Les sépales libres sont généralement plus courts que les pétales. Les cinq pétales à prédominance jaune, blanc rare, jaune-vert ou rose à rougeâtre sont presque libres. Il y a deux cercles avec cinq étamines. Les écailles de nectar jaunâtre sont relativement petites. Les feuilles droites des fruits sont libres et contiennent de nombreuses plantes à graines. Les stylets sont étroits.
 Les follicules multiples ont une extrémité en forme de bec. Les graines sont petites.
 </t>
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première publication du nom générique Orostachys a lieu en 1809 par Friedrich Ernst Ludwig von Fischer dans Mémoires de la Société Impériale des Naturalistes de Moscou, volume 2, p 270. Les autres auteurs souvent cités Augustin Pyrame de Candolle, Robert Sweet ou Alwin Berger ne sont pas repris[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première publication du nom générique Orostachys a lieu en 1809 par Friedrich Ernst Ludwig von Fischer dans Mémoires de la Société Impériale des Naturalistes de Moscou, volume 2, p 270. Les autres auteurs souvent cités Augustin Pyrame de Candolle, Robert Sweet ou Alwin Berger ne sont pas repris.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre est divisé en deux sections et comprend les espèces suivantes :
 Section Orostachys
@@ -630,10 +648,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont utilisées comme plantes ornementales.
-Orostachys japonica a des propriétés médicinales[5].
+Orostachys japonica a des propriétés médicinales.
 </t>
         </is>
       </c>
